--- a/doc/设定记录.xlsx
+++ b/doc/设定记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B955E9AD-DBE1-4FBD-BA09-3FC97048F088}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3BEE6F8-CF9E-4136-90B4-0ED8837656FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,9 +234,6 @@
     <t>private int quality;</t>
   </si>
   <si>
-    <t>//品质 0白 1黄 2绿 3蓝 4红 5紫 6百炼 7橙</t>
-  </si>
-  <si>
     <t>//private int durability;</t>
   </si>
   <si>
@@ -318,6 +315,46 @@
   </si>
   <si>
     <t>//private int score;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//品质 0白 1黄 2绿 3蓝 4红 5紫 6橙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0蓝及以上 1红及以上 2蓝 3红 4紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0随机 1武器 2项链 3手镯 4戒指 5头部 6上衣 7腕部 8手套 9腰带 10鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0随机 1血河 2铁衣 3神相 4九灵 5素问 6碎梦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,187 +876,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD76615-8ED7-4260-BDF5-366C2ED474D1}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/设定记录.xlsx
+++ b/doc/设定记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3BEE6F8-CF9E-4136-90B4-0ED8837656FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B19647DD-60F1-465A-88AC-D03734B9F692}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>//流派 0血河 1铁衣 2九灵 3素问 4神相 5碎梦 6All</t>
   </si>
   <si>
-    <t>private int component;</t>
-  </si>
-  <si>
     <t>//部位 0武器 1头部 2上衣 3腕部 4手套 5腰带 6鞋子 7项链 8手镯 9戒指</t>
   </si>
   <si>
@@ -355,6 +352,10 @@
   </si>
   <si>
     <t>0随机 1血河 2铁衣 3神相 4九灵 5素问 6碎梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private int part;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +684,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -879,7 +880,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,7 +890,7 @@
         <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,7 +913,7 @@
         <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -920,7 +921,7 @@
         <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -928,15 +929,15 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -954,7 +955,7 @@
         <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,128 +963,128 @@
         <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
